--- a/data/pca/factorExposure/factorExposure_2015-10-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-10-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01500556020620099</v>
+        <v>-0.0161602790487593</v>
       </c>
       <c r="C2">
-        <v>0.02959371918220011</v>
+        <v>0.03440667322765067</v>
       </c>
       <c r="D2">
-        <v>0.1084392600492249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1270779402199065</v>
+      </c>
+      <c r="E2">
+        <v>0.05509957988663671</v>
+      </c>
+      <c r="F2">
+        <v>0.02998020137234231</v>
+      </c>
+      <c r="G2">
+        <v>0.04214236107607751</v>
+      </c>
+      <c r="H2">
+        <v>-0.1093228656802885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01748152134260326</v>
+        <v>-0.01251564146544812</v>
       </c>
       <c r="C3">
-        <v>0.04971926937698418</v>
+        <v>0.04043962745833318</v>
       </c>
       <c r="D3">
-        <v>0.08289128991322596</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.05509529237833562</v>
+      </c>
+      <c r="E3">
+        <v>0.04087991087788072</v>
+      </c>
+      <c r="F3">
+        <v>0.07172800290735983</v>
+      </c>
+      <c r="G3">
+        <v>0.1181484699118916</v>
+      </c>
+      <c r="H3">
+        <v>-0.07905461655856785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04586139905278714</v>
+        <v>-0.04884385479881257</v>
       </c>
       <c r="C4">
-        <v>0.06062333475081586</v>
+        <v>0.07232454134179127</v>
       </c>
       <c r="D4">
-        <v>0.1255278776812504</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1463456893740421</v>
+      </c>
+      <c r="E4">
+        <v>0.05213987393584543</v>
+      </c>
+      <c r="F4">
+        <v>0.04384988390570972</v>
+      </c>
+      <c r="G4">
+        <v>-0.04142380890693806</v>
+      </c>
+      <c r="H4">
+        <v>0.004962101335043453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03556470450958062</v>
+        <v>-0.03846137499025821</v>
       </c>
       <c r="C6">
-        <v>0.02366896718237766</v>
+        <v>0.0276095259072747</v>
       </c>
       <c r="D6">
-        <v>0.1519809183116831</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1399827436061331</v>
+      </c>
+      <c r="E6">
+        <v>0.01601751025750206</v>
+      </c>
+      <c r="F6">
+        <v>0.02975292787893419</v>
+      </c>
+      <c r="G6">
+        <v>-0.0225053260404494</v>
+      </c>
+      <c r="H6">
+        <v>-0.05613466713594516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01635203478473245</v>
+        <v>-0.01301118457699944</v>
       </c>
       <c r="C7">
-        <v>0.02722202905966995</v>
+        <v>0.0334848928541423</v>
       </c>
       <c r="D7">
-        <v>0.1044452763302163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09603292551775855</v>
+      </c>
+      <c r="E7">
+        <v>0.01413959685956732</v>
+      </c>
+      <c r="F7">
+        <v>0.02941655400786175</v>
+      </c>
+      <c r="G7">
+        <v>-0.0006055987695102159</v>
+      </c>
+      <c r="H7">
+        <v>-0.08180819824711801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.00872844395027792</v>
+        <v>-0.008002944065096761</v>
       </c>
       <c r="C8">
-        <v>0.03220259101317373</v>
+        <v>0.03600518545101438</v>
       </c>
       <c r="D8">
-        <v>0.06350582416971169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07635018015706584</v>
+      </c>
+      <c r="E8">
+        <v>0.02933132572163238</v>
+      </c>
+      <c r="F8">
+        <v>0.06813420001887353</v>
+      </c>
+      <c r="G8">
+        <v>0.02611363767368941</v>
+      </c>
+      <c r="H8">
+        <v>-0.06180920911870642</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0389779977709639</v>
+        <v>-0.03952099956058373</v>
       </c>
       <c r="C9">
-        <v>0.05397637163540621</v>
+        <v>0.06537455768493573</v>
       </c>
       <c r="D9">
-        <v>0.1119210207525677</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1219547725297025</v>
+      </c>
+      <c r="E9">
+        <v>0.03930911868262104</v>
+      </c>
+      <c r="F9">
+        <v>0.02514246749537247</v>
+      </c>
+      <c r="G9">
+        <v>-0.0243993177892254</v>
+      </c>
+      <c r="H9">
+        <v>-0.002458226871683771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1157660814222727</v>
+        <v>-0.148485411728732</v>
       </c>
       <c r="C10">
-        <v>-0.1853165684251508</v>
+        <v>-0.1879646553431106</v>
       </c>
       <c r="D10">
-        <v>0.003756506046225952</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01038609531433773</v>
+      </c>
+      <c r="E10">
+        <v>0.03996693216348429</v>
+      </c>
+      <c r="F10">
+        <v>0.05197431330599871</v>
+      </c>
+      <c r="G10">
+        <v>0.00229137261750914</v>
+      </c>
+      <c r="H10">
+        <v>0.03459698667152694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02982975806964606</v>
+        <v>-0.02838610239413271</v>
       </c>
       <c r="C11">
-        <v>0.04172424462239604</v>
+        <v>0.04567801259933032</v>
       </c>
       <c r="D11">
-        <v>0.05965221774252693</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0596337155848377</v>
+      </c>
+      <c r="E11">
+        <v>-0.008786131820433118</v>
+      </c>
+      <c r="F11">
+        <v>-0.005258934380670499</v>
+      </c>
+      <c r="G11">
+        <v>-0.004821364372349111</v>
+      </c>
+      <c r="H11">
+        <v>-0.03309026081111303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0359033268634842</v>
+        <v>-0.03269871570999493</v>
       </c>
       <c r="C12">
-        <v>0.04341609152568464</v>
+        <v>0.04816250769943966</v>
       </c>
       <c r="D12">
-        <v>0.05969103243355938</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05600291375886742</v>
+      </c>
+      <c r="E12">
+        <v>0.0009357738081298124</v>
+      </c>
+      <c r="F12">
+        <v>-0.008619490575182543</v>
+      </c>
+      <c r="G12">
+        <v>0.003068959973899969</v>
+      </c>
+      <c r="H12">
+        <v>-0.03459342605904706</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01137819157183634</v>
+        <v>-0.01579983907687589</v>
       </c>
       <c r="C13">
-        <v>0.03471993936103528</v>
+        <v>0.03935053440601186</v>
       </c>
       <c r="D13">
-        <v>0.1408738940853395</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1560662841440208</v>
+      </c>
+      <c r="E13">
+        <v>0.02866971986846339</v>
+      </c>
+      <c r="F13">
+        <v>0.06164789387737931</v>
+      </c>
+      <c r="G13">
+        <v>0.01568926004535124</v>
+      </c>
+      <c r="H13">
+        <v>-0.0782275633446754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.002885943300532574</v>
+        <v>-0.006356327222004582</v>
       </c>
       <c r="C14">
-        <v>0.02196864556240204</v>
+        <v>0.02326945565824299</v>
       </c>
       <c r="D14">
-        <v>0.08944815577804219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.09396833918494783</v>
+      </c>
+      <c r="E14">
+        <v>0.03181043429877958</v>
+      </c>
+      <c r="F14">
+        <v>0.01655382797442745</v>
+      </c>
+      <c r="G14">
+        <v>-0.002574012314938859</v>
+      </c>
+      <c r="H14">
+        <v>-0.1002089174036563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002542931425540511</v>
+        <v>-0.00129466085324533</v>
       </c>
       <c r="C15">
-        <v>0.004427702953163314</v>
+        <v>0.01220516263025677</v>
       </c>
       <c r="D15">
-        <v>0.005852123629467221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03559972804450961</v>
+      </c>
+      <c r="E15">
+        <v>0.01066578958868557</v>
+      </c>
+      <c r="F15">
+        <v>0.002227987558311533</v>
+      </c>
+      <c r="G15">
+        <v>-0.0001484817437922725</v>
+      </c>
+      <c r="H15">
+        <v>-0.0236278337242204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02978018668992326</v>
+        <v>-0.02822411750815725</v>
       </c>
       <c r="C16">
-        <v>0.04415928361690492</v>
+        <v>0.04714563013123523</v>
       </c>
       <c r="D16">
-        <v>0.0639055755674227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06172023661161437</v>
+      </c>
+      <c r="E16">
+        <v>0.007815289492424261</v>
+      </c>
+      <c r="F16">
+        <v>0.0002109436340829525</v>
+      </c>
+      <c r="G16">
+        <v>-0.003902757852390485</v>
+      </c>
+      <c r="H16">
+        <v>-0.04756723727378139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.009230060021533665</v>
+        <v>-0.007221632139223486</v>
       </c>
       <c r="C19">
-        <v>0.03194128721262894</v>
+        <v>0.02676078795607294</v>
       </c>
       <c r="D19">
-        <v>0.148310561230248</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1141297626687972</v>
+      </c>
+      <c r="E19">
+        <v>0.05448092913223904</v>
+      </c>
+      <c r="F19">
+        <v>0.003723293085467172</v>
+      </c>
+      <c r="G19">
+        <v>0.02236092380505424</v>
+      </c>
+      <c r="H19">
+        <v>-0.05274326632171846</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01219956028302821</v>
+        <v>-0.01424917541217746</v>
       </c>
       <c r="C20">
-        <v>0.03176505309160696</v>
+        <v>0.03536348314663541</v>
       </c>
       <c r="D20">
-        <v>0.09100271347246289</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1033418623113046</v>
+      </c>
+      <c r="E20">
+        <v>0.0480648581689458</v>
+      </c>
+      <c r="F20">
+        <v>0.0158804982270958</v>
+      </c>
+      <c r="G20">
+        <v>-0.008540387582980816</v>
+      </c>
+      <c r="H20">
+        <v>-0.05478607396184131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005418089035206579</v>
+        <v>-0.007996826839321017</v>
       </c>
       <c r="C21">
-        <v>0.03277683551291865</v>
+        <v>0.0383556323800171</v>
       </c>
       <c r="D21">
-        <v>0.1381253402396288</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1406760456817226</v>
+      </c>
+      <c r="E21">
+        <v>0.08036383788041385</v>
+      </c>
+      <c r="F21">
+        <v>0.04672412360479615</v>
+      </c>
+      <c r="G21">
+        <v>-0.006414182484164792</v>
+      </c>
+      <c r="H21">
+        <v>-0.08195468092167781</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.001920693172430523</v>
+        <v>-0.007343070645275477</v>
       </c>
       <c r="C22">
-        <v>0.0471416494353666</v>
+        <v>0.0415936979988923</v>
       </c>
       <c r="D22">
-        <v>0.1103838482200451</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1616967532181687</v>
+      </c>
+      <c r="E22">
+        <v>0.01803677534756567</v>
+      </c>
+      <c r="F22">
+        <v>0.09276074282098158</v>
+      </c>
+      <c r="G22">
+        <v>0.06135922586038359</v>
+      </c>
+      <c r="H22">
+        <v>-0.04811064782060591</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.001772312142385919</v>
+        <v>-0.007482634570140518</v>
       </c>
       <c r="C23">
-        <v>0.04744111573345523</v>
+        <v>0.0420783624135072</v>
       </c>
       <c r="D23">
-        <v>0.1099318104087703</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.161018498982808</v>
+      </c>
+      <c r="E23">
+        <v>0.01850696581921014</v>
+      </c>
+      <c r="F23">
+        <v>0.09289389323782345</v>
+      </c>
+      <c r="G23">
+        <v>0.06062388208031511</v>
+      </c>
+      <c r="H23">
+        <v>-0.04751459184476535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03296522382526794</v>
+        <v>-0.03008016390025627</v>
       </c>
       <c r="C24">
-        <v>0.0542185755415457</v>
+        <v>0.05857409107659882</v>
       </c>
       <c r="D24">
-        <v>0.06498567395911507</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06494538286421189</v>
+      </c>
+      <c r="E24">
+        <v>0.009158910998836714</v>
+      </c>
+      <c r="F24">
+        <v>-0.000964187208554232</v>
+      </c>
+      <c r="G24">
+        <v>-0.01499499236606426</v>
+      </c>
+      <c r="H24">
+        <v>-0.05268486085700137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03772133754615355</v>
+        <v>-0.03390532862834635</v>
       </c>
       <c r="C25">
-        <v>0.05198711803131471</v>
+        <v>0.0556866710107572</v>
       </c>
       <c r="D25">
-        <v>0.06396054022393101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06191112497612244</v>
+      </c>
+      <c r="E25">
+        <v>0.01007747094659143</v>
+      </c>
+      <c r="F25">
+        <v>0.001627813227788294</v>
+      </c>
+      <c r="G25">
+        <v>-0.0001293276658776101</v>
+      </c>
+      <c r="H25">
+        <v>-0.02646424386815301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0138204944785116</v>
+        <v>-0.01644991348590855</v>
       </c>
       <c r="C26">
-        <v>0.01122129072377678</v>
+        <v>0.01765599040235632</v>
       </c>
       <c r="D26">
-        <v>0.05566963061915964</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0634939517984963</v>
+      </c>
+      <c r="E26">
+        <v>0.02185956376335912</v>
+      </c>
+      <c r="F26">
+        <v>0.01902845882312606</v>
+      </c>
+      <c r="G26">
+        <v>-0.004635331590581391</v>
+      </c>
+      <c r="H26">
+        <v>-0.05694475220217439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1702215647938445</v>
+        <v>-0.2120399494062734</v>
       </c>
       <c r="C28">
-        <v>-0.2616077735186591</v>
+        <v>-0.2528108573805938</v>
       </c>
       <c r="D28">
-        <v>-0.006035926887655961</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.003839907064234799</v>
+      </c>
+      <c r="E28">
+        <v>0.07434898010954366</v>
+      </c>
+      <c r="F28">
+        <v>0.03844137089094863</v>
+      </c>
+      <c r="G28">
+        <v>-0.02305989058782099</v>
+      </c>
+      <c r="H28">
+        <v>0.04524123773200153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.000126074054125982</v>
+        <v>-0.004013991329361028</v>
       </c>
       <c r="C29">
-        <v>0.02158166228167776</v>
+        <v>0.02142684382411847</v>
       </c>
       <c r="D29">
-        <v>0.07870419673295528</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.09168161678603468</v>
+      </c>
+      <c r="E29">
+        <v>0.02296670969349302</v>
+      </c>
+      <c r="F29">
+        <v>0.03566261637713562</v>
+      </c>
+      <c r="G29">
+        <v>-0.01226857212029286</v>
+      </c>
+      <c r="H29">
+        <v>-0.09589399651597764</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02900793615892278</v>
+        <v>-0.03643638194402</v>
       </c>
       <c r="C30">
-        <v>0.05049990836458403</v>
+        <v>0.06246568899060082</v>
       </c>
       <c r="D30">
-        <v>0.1609755157088807</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1731142456922579</v>
+      </c>
+      <c r="E30">
+        <v>0.02231896680519409</v>
+      </c>
+      <c r="F30">
+        <v>0.02744815709892</v>
+      </c>
+      <c r="G30">
+        <v>-0.02866391042740301</v>
+      </c>
+      <c r="H30">
+        <v>-0.06828919179820885</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05930308832812702</v>
+        <v>-0.0518869365720819</v>
       </c>
       <c r="C31">
-        <v>0.06477337705625005</v>
+        <v>0.07602522240547442</v>
       </c>
       <c r="D31">
-        <v>0.07247726099549992</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05592360015576313</v>
+      </c>
+      <c r="E31">
+        <v>0.01900731942028588</v>
+      </c>
+      <c r="F31">
+        <v>0.04345199823341019</v>
+      </c>
+      <c r="G31">
+        <v>0.005917540709666327</v>
+      </c>
+      <c r="H31">
+        <v>-0.01517255542223011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.009824600438405103</v>
+        <v>-0.01601865521465046</v>
       </c>
       <c r="C32">
-        <v>0.01126499193657353</v>
+        <v>0.01464211443301437</v>
       </c>
       <c r="D32">
-        <v>0.07447430838298839</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1133492106943333</v>
+      </c>
+      <c r="E32">
+        <v>0.07494170198843081</v>
+      </c>
+      <c r="F32">
+        <v>0.05323473945128711</v>
+      </c>
+      <c r="G32">
+        <v>-0.009023386053837628</v>
+      </c>
+      <c r="H32">
+        <v>-0.06491071073376604</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02251707333852299</v>
+        <v>-0.02448187582807467</v>
       </c>
       <c r="C33">
-        <v>0.03829801564749124</v>
+        <v>0.04486981313923368</v>
       </c>
       <c r="D33">
-        <v>0.1386246972639523</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1345026682593714</v>
+      </c>
+      <c r="E33">
+        <v>0.03757485907986229</v>
+      </c>
+      <c r="F33">
+        <v>0.02551391736055014</v>
+      </c>
+      <c r="G33">
+        <v>-0.001492077482768802</v>
+      </c>
+      <c r="H33">
+        <v>-0.0627616604638865</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03053839600157014</v>
+        <v>-0.0254891828421311</v>
       </c>
       <c r="C34">
-        <v>0.0655235753072161</v>
+        <v>0.06360984086309748</v>
       </c>
       <c r="D34">
-        <v>0.06671917611511205</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05512439292280621</v>
+      </c>
+      <c r="E34">
+        <v>-0.007692563833332423</v>
+      </c>
+      <c r="F34">
+        <v>-0.01128801839211313</v>
+      </c>
+      <c r="G34">
+        <v>0.002624228514653674</v>
+      </c>
+      <c r="H34">
+        <v>-0.04612278276393589</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.0009408130357712874</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0009145390065850024</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.007726751715614907</v>
+      </c>
+      <c r="E35">
+        <v>-0.0002034755715237026</v>
+      </c>
+      <c r="F35">
+        <v>0.0007950436105473011</v>
+      </c>
+      <c r="G35">
+        <v>-0.0001306419568162559</v>
+      </c>
+      <c r="H35">
+        <v>-0.00420851656065118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01709199680731775</v>
+        <v>-0.01886001161882298</v>
       </c>
       <c r="C36">
-        <v>0.0075762805465529</v>
+        <v>0.01514165189914658</v>
       </c>
       <c r="D36">
-        <v>0.07920821492097686</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07825657245242511</v>
+      </c>
+      <c r="E36">
+        <v>0.02922253015345476</v>
+      </c>
+      <c r="F36">
+        <v>0.01694684634548921</v>
+      </c>
+      <c r="G36">
+        <v>-0.01443303122192958</v>
+      </c>
+      <c r="H36">
+        <v>-0.0475847773158866</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01833335489407029</v>
+        <v>-0.02082587341723765</v>
       </c>
       <c r="C38">
-        <v>0.01829727830835089</v>
+        <v>0.02002895614741363</v>
       </c>
       <c r="D38">
-        <v>0.06357931218982119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0668631281139777</v>
+      </c>
+      <c r="E38">
+        <v>0.03494989184725742</v>
+      </c>
+      <c r="F38">
+        <v>-0.01082806694536667</v>
+      </c>
+      <c r="G38">
+        <v>0.02193865570428293</v>
+      </c>
+      <c r="H38">
+        <v>-0.04841358064071881</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03534809755463772</v>
+        <v>-0.03337378485861626</v>
       </c>
       <c r="C39">
-        <v>0.05743701825355729</v>
+        <v>0.0696431782493948</v>
       </c>
       <c r="D39">
-        <v>0.08752083895531983</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1024685261613166</v>
+      </c>
+      <c r="E39">
+        <v>0.01218643724172363</v>
+      </c>
+      <c r="F39">
+        <v>-0.0205076612136697</v>
+      </c>
+      <c r="G39">
+        <v>-0.0283402254085909</v>
+      </c>
+      <c r="H39">
+        <v>-0.09105035746433257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01283311201290584</v>
+        <v>-0.01242205253986524</v>
       </c>
       <c r="C40">
-        <v>0.04139374900398908</v>
+        <v>0.03729159622436221</v>
       </c>
       <c r="D40">
-        <v>0.08137727419631587</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08811897270839636</v>
+      </c>
+      <c r="E40">
+        <v>0.04018335639859906</v>
+      </c>
+      <c r="F40">
+        <v>0.1014199988631025</v>
+      </c>
+      <c r="G40">
+        <v>0.09725125368140916</v>
+      </c>
+      <c r="H40">
+        <v>-0.1653544459597306</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02371707866253565</v>
+        <v>-0.02336683302786025</v>
       </c>
       <c r="C41">
-        <v>0.003390848743544375</v>
+        <v>0.00967944052399254</v>
       </c>
       <c r="D41">
-        <v>0.06802212222511644</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05262667756299874</v>
+      </c>
+      <c r="E41">
+        <v>0.04839325188916086</v>
+      </c>
+      <c r="F41">
+        <v>0.0186640782761842</v>
+      </c>
+      <c r="G41">
+        <v>0.01875236379924698</v>
+      </c>
+      <c r="H41">
+        <v>-0.04356605910807075</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02527043206511972</v>
+        <v>-0.02294107662130542</v>
       </c>
       <c r="C43">
-        <v>0.01468843311035799</v>
+        <v>0.0190677119667859</v>
       </c>
       <c r="D43">
-        <v>0.1099054951390794</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0841879495958269</v>
+      </c>
+      <c r="E43">
+        <v>0.02314381770338789</v>
+      </c>
+      <c r="F43">
+        <v>0.01285433168220749</v>
+      </c>
+      <c r="G43">
+        <v>0.02003071716670412</v>
+      </c>
+      <c r="H43">
+        <v>-0.05063903155447844</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01025745843987813</v>
+        <v>-0.01373732304823106</v>
       </c>
       <c r="C44">
-        <v>0.04340473869769852</v>
+        <v>0.04118604846445256</v>
       </c>
       <c r="D44">
-        <v>0.08477765209068776</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1029885602631144</v>
+      </c>
+      <c r="E44">
+        <v>0.04760426387508573</v>
+      </c>
+      <c r="F44">
+        <v>0.02537727570426012</v>
+      </c>
+      <c r="G44">
+        <v>0.005819907962121581</v>
+      </c>
+      <c r="H44">
+        <v>-0.06550318230320228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01153168733873466</v>
+        <v>-0.0117230886155583</v>
       </c>
       <c r="C46">
-        <v>0.02514497023650219</v>
+        <v>0.03007467888862584</v>
       </c>
       <c r="D46">
-        <v>0.08541553493368095</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08786143533524521</v>
+      </c>
+      <c r="E46">
+        <v>0.03384753880944463</v>
+      </c>
+      <c r="F46">
+        <v>0.01523540059816347</v>
+      </c>
+      <c r="G46">
+        <v>-0.01624443825680981</v>
+      </c>
+      <c r="H46">
+        <v>-0.09044894145322409</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09143709499589553</v>
+        <v>-0.08003097498534471</v>
       </c>
       <c r="C47">
-        <v>0.07391338183399984</v>
+        <v>0.09135061224091889</v>
       </c>
       <c r="D47">
-        <v>0.04810510589048041</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03580600627877758</v>
+      </c>
+      <c r="E47">
+        <v>0.03317783464960402</v>
+      </c>
+      <c r="F47">
+        <v>0.03267962435925766</v>
+      </c>
+      <c r="G47">
+        <v>0.02294854489924279</v>
+      </c>
+      <c r="H47">
+        <v>0.04467601267783183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01035008847906568</v>
+        <v>-0.01382023901843459</v>
       </c>
       <c r="C48">
-        <v>0.01816084775621423</v>
+        <v>0.02109444281476072</v>
       </c>
       <c r="D48">
-        <v>0.06821424539155849</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07258051917255885</v>
+      </c>
+      <c r="E48">
+        <v>0.05519645260424207</v>
+      </c>
+      <c r="F48">
+        <v>0.0234806794456939</v>
+      </c>
+      <c r="G48">
+        <v>-0.01052276753480058</v>
+      </c>
+      <c r="H48">
+        <v>-0.05605321315137145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05651993621414369</v>
+        <v>-0.04883860269891994</v>
       </c>
       <c r="C50">
-        <v>0.05619095635641325</v>
+        <v>0.06790715852437802</v>
       </c>
       <c r="D50">
-        <v>0.06308932828749787</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05377485929843993</v>
+      </c>
+      <c r="E50">
+        <v>0.02317645048484992</v>
+      </c>
+      <c r="F50">
+        <v>0.04650720341970694</v>
+      </c>
+      <c r="G50">
+        <v>0.03812239048849436</v>
+      </c>
+      <c r="H50">
+        <v>-0.02383406703421483</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.00977976689227068</v>
+        <v>-0.01022843902438819</v>
       </c>
       <c r="C51">
-        <v>0.01524477105056405</v>
+        <v>0.02125616813504926</v>
       </c>
       <c r="D51">
-        <v>0.07790545204258534</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08874173329742673</v>
+      </c>
+      <c r="E51">
+        <v>0.00901791185273719</v>
+      </c>
+      <c r="F51">
+        <v>0.006721043116140545</v>
+      </c>
+      <c r="G51">
+        <v>-0.01700630401515275</v>
+      </c>
+      <c r="H51">
+        <v>-0.08574425320076891</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08966134054801</v>
+        <v>-0.08705992431591235</v>
       </c>
       <c r="C53">
-        <v>0.0921484733617443</v>
+        <v>0.101256162356182</v>
       </c>
       <c r="D53">
-        <v>0.007920129198811996</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01731122824403706</v>
+      </c>
+      <c r="E53">
+        <v>0.1025794210534852</v>
+      </c>
+      <c r="F53">
+        <v>0.0917682435102576</v>
+      </c>
+      <c r="G53">
+        <v>-0.04072591590798123</v>
+      </c>
+      <c r="H53">
+        <v>0.02895746392519893</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02374731906133981</v>
+        <v>-0.02492057610017407</v>
       </c>
       <c r="C54">
-        <v>0.02876478177962973</v>
+        <v>0.03441062935878163</v>
       </c>
       <c r="D54">
-        <v>0.09332852210207529</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08695554595095503</v>
+      </c>
+      <c r="E54">
+        <v>0.03701969798188564</v>
+      </c>
+      <c r="F54">
+        <v>0.007115560256776353</v>
+      </c>
+      <c r="G54">
+        <v>0.0226980137332143</v>
+      </c>
+      <c r="H54">
+        <v>-0.08812627222969542</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.0908176535883769</v>
+        <v>-0.0843839151684567</v>
       </c>
       <c r="C55">
-        <v>0.0696760554794197</v>
+        <v>0.08064761528182622</v>
       </c>
       <c r="D55">
-        <v>-0.007465641401485782</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.004261158526772224</v>
+      </c>
+      <c r="E55">
+        <v>0.04942452716984997</v>
+      </c>
+      <c r="F55">
+        <v>0.06245936343688787</v>
+      </c>
+      <c r="G55">
+        <v>-0.01809657095716033</v>
+      </c>
+      <c r="H55">
+        <v>0.01578902017535861</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1384167879544096</v>
+        <v>-0.1277507408928326</v>
       </c>
       <c r="C56">
-        <v>0.1017671032385368</v>
+        <v>0.1281657970275873</v>
       </c>
       <c r="D56">
-        <v>-0.00568082588932955</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.007805162054536742</v>
+      </c>
+      <c r="E56">
+        <v>0.04956159822226688</v>
+      </c>
+      <c r="F56">
+        <v>0.05846440682480564</v>
+      </c>
+      <c r="G56">
+        <v>0.01075980679756083</v>
+      </c>
+      <c r="H56">
+        <v>0.04837928119749976</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.003134270789738882</v>
+        <v>-0.01144022031168831</v>
       </c>
       <c r="C58">
-        <v>0.01203530191260111</v>
+        <v>0.03254261471985238</v>
       </c>
       <c r="D58">
-        <v>0.2693860508706524</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3122071000818545</v>
+      </c>
+      <c r="E58">
+        <v>0.08398972197645713</v>
+      </c>
+      <c r="F58">
+        <v>0.09902925436832635</v>
+      </c>
+      <c r="G58">
+        <v>0.0594213547343563</v>
+      </c>
+      <c r="H58">
+        <v>0.01066682640663385</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1501647061777643</v>
+        <v>-0.1830427147598763</v>
       </c>
       <c r="C59">
-        <v>-0.1778412588312004</v>
+        <v>-0.1661632117743808</v>
       </c>
       <c r="D59">
-        <v>0.04043995862755308</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.05680462134103537</v>
+      </c>
+      <c r="E59">
+        <v>0.0419098851661546</v>
+      </c>
+      <c r="F59">
+        <v>-0.03077247795316466</v>
+      </c>
+      <c r="G59">
+        <v>0.003562361585524639</v>
+      </c>
+      <c r="H59">
+        <v>0.02146910874214499</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2409354792825791</v>
+        <v>-0.2269337019341041</v>
       </c>
       <c r="C60">
-        <v>0.08059160065849487</v>
+        <v>0.106542306009105</v>
       </c>
       <c r="D60">
-        <v>0.2002242189302477</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1361190562545009</v>
+      </c>
+      <c r="E60">
+        <v>-0.3226294896123035</v>
+      </c>
+      <c r="F60">
+        <v>-0.08704168414276325</v>
+      </c>
+      <c r="G60">
+        <v>-0.02902425608903254</v>
+      </c>
+      <c r="H60">
+        <v>0.1538771047023956</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04258478586497084</v>
+        <v>-0.0392005571499774</v>
       </c>
       <c r="C61">
-        <v>0.05409320686951571</v>
+        <v>0.06289385862766222</v>
       </c>
       <c r="D61">
-        <v>0.1016495475358504</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09343397422399159</v>
+      </c>
+      <c r="E61">
+        <v>0.003694985425622177</v>
+      </c>
+      <c r="F61">
+        <v>-0.01404037666091569</v>
+      </c>
+      <c r="G61">
+        <v>-0.01127690947553019</v>
+      </c>
+      <c r="H61">
+        <v>-0.05225606630040331</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01561809412684962</v>
+        <v>-0.01637500298403591</v>
       </c>
       <c r="C63">
-        <v>0.02190210925956609</v>
+        <v>0.03055550813383317</v>
       </c>
       <c r="D63">
-        <v>0.07730487721747445</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07540525199681711</v>
+      </c>
+      <c r="E63">
+        <v>0.01346664391308999</v>
+      </c>
+      <c r="F63">
+        <v>0.01388424444652456</v>
+      </c>
+      <c r="G63">
+        <v>-0.01615049683207755</v>
+      </c>
+      <c r="H63">
+        <v>-0.04941050061384847</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05792855557564485</v>
+        <v>-0.05025908780431139</v>
       </c>
       <c r="C64">
-        <v>0.07409309067155002</v>
+        <v>0.08162673540542381</v>
       </c>
       <c r="D64">
-        <v>0.0549590305155823</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0556585430912207</v>
+      </c>
+      <c r="E64">
+        <v>0.01831590144843631</v>
+      </c>
+      <c r="F64">
+        <v>0.004341785320570562</v>
+      </c>
+      <c r="G64">
+        <v>-0.06804390249235923</v>
+      </c>
+      <c r="H64">
+        <v>-0.03077625153791678</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03984535340210471</v>
+        <v>-0.04098920785750653</v>
       </c>
       <c r="C65">
-        <v>0.02062657341972314</v>
+        <v>0.02723335301861729</v>
       </c>
       <c r="D65">
-        <v>0.124473163561334</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1175772123909086</v>
+      </c>
+      <c r="E65">
+        <v>-0.009064048672945727</v>
+      </c>
+      <c r="F65">
+        <v>0.01451238990928781</v>
+      </c>
+      <c r="G65">
+        <v>-0.001283675829792294</v>
+      </c>
+      <c r="H65">
+        <v>-0.02083629335982679</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03873081309525476</v>
+        <v>-0.03678465626304245</v>
       </c>
       <c r="C66">
-        <v>0.06417723336915265</v>
+        <v>0.07857323399974755</v>
       </c>
       <c r="D66">
-        <v>0.1074622012570968</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1288864832178995</v>
+      </c>
+      <c r="E66">
+        <v>0.01243474309830273</v>
+      </c>
+      <c r="F66">
+        <v>-0.009201722127041217</v>
+      </c>
+      <c r="G66">
+        <v>-0.004760199203101334</v>
+      </c>
+      <c r="H66">
+        <v>-0.06214049862589582</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03939295280968746</v>
+        <v>-0.03833855718610395</v>
       </c>
       <c r="C67">
-        <v>0.02351047958894389</v>
+        <v>0.02668413142725963</v>
       </c>
       <c r="D67">
-        <v>0.03476472934092634</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02776392964795673</v>
+      </c>
+      <c r="E67">
+        <v>0.01235731275562695</v>
+      </c>
+      <c r="F67">
+        <v>-0.01811704491885825</v>
+      </c>
+      <c r="G67">
+        <v>0.01723336689233717</v>
+      </c>
+      <c r="H67">
+        <v>-0.04328776791530133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1718197042741139</v>
+        <v>-0.2027678820788861</v>
       </c>
       <c r="C68">
-        <v>-0.2214371256721406</v>
+        <v>-0.1973495367023862</v>
       </c>
       <c r="D68">
-        <v>0.01786213173571458</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02471114475991455</v>
+      </c>
+      <c r="E68">
+        <v>0.02834759033118385</v>
+      </c>
+      <c r="F68">
+        <v>0.03074536208936419</v>
+      </c>
+      <c r="G68">
+        <v>9.118449115698069e-05</v>
+      </c>
+      <c r="H68">
+        <v>-0.01165674916637698</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08198224448705392</v>
+        <v>-0.07103226223079544</v>
       </c>
       <c r="C69">
-        <v>0.08887856971251493</v>
+        <v>0.09935095274344084</v>
       </c>
       <c r="D69">
-        <v>0.0695212863840201</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.0511663609027703</v>
+      </c>
+      <c r="E69">
+        <v>0.02133807905794661</v>
+      </c>
+      <c r="F69">
+        <v>0.0138000508072786</v>
+      </c>
+      <c r="G69">
+        <v>0.009667399265974484</v>
+      </c>
+      <c r="H69">
+        <v>0.01857276310436309</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1549890736790791</v>
+        <v>-0.1875704021145886</v>
       </c>
       <c r="C71">
-        <v>-0.2220578423084156</v>
+        <v>-0.204190560021436</v>
       </c>
       <c r="D71">
-        <v>0.03003332064294044</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03790922282479739</v>
+      </c>
+      <c r="E71">
+        <v>0.04584795739196121</v>
+      </c>
+      <c r="F71">
+        <v>0.06838677717139167</v>
+      </c>
+      <c r="G71">
+        <v>0.02913131177979018</v>
+      </c>
+      <c r="H71">
+        <v>0.002581735496078941</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1058422746579067</v>
+        <v>-0.09945940574251536</v>
       </c>
       <c r="C72">
-        <v>0.05549839666880069</v>
+        <v>0.07717024758044695</v>
       </c>
       <c r="D72">
-        <v>0.09210612153309378</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09522800667453235</v>
+      </c>
+      <c r="E72">
+        <v>-0.04812938506742676</v>
+      </c>
+      <c r="F72">
+        <v>0.0288585442193934</v>
+      </c>
+      <c r="G72">
+        <v>-0.04050214919672609</v>
+      </c>
+      <c r="H72">
+        <v>-0.03328240855250169</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2550129080041088</v>
+        <v>-0.2340705635274698</v>
       </c>
       <c r="C73">
-        <v>0.04957338164675547</v>
+        <v>0.09861958835750922</v>
       </c>
       <c r="D73">
-        <v>0.3084781266550939</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1763156634718266</v>
+      </c>
+      <c r="E73">
+        <v>-0.6236344143272627</v>
+      </c>
+      <c r="F73">
+        <v>-0.1974995159361511</v>
+      </c>
+      <c r="G73">
+        <v>-0.05582882075135756</v>
+      </c>
+      <c r="H73">
+        <v>0.1946741620026364</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1052626605734259</v>
+        <v>-0.09451415518431869</v>
       </c>
       <c r="C74">
-        <v>0.07374831619563596</v>
+        <v>0.09219371115596409</v>
       </c>
       <c r="D74">
-        <v>-0.00641134701050314</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01262502447556138</v>
+      </c>
+      <c r="E74">
+        <v>0.03986888392731477</v>
+      </c>
+      <c r="F74">
+        <v>0.07481875914558093</v>
+      </c>
+      <c r="G74">
+        <v>-0.03662857515061847</v>
+      </c>
+      <c r="H74">
+        <v>0.05582955879155684</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2481278243160649</v>
+        <v>-0.2229820929445992</v>
       </c>
       <c r="C75">
-        <v>0.1330980006877614</v>
+        <v>0.1679510966836341</v>
       </c>
       <c r="D75">
-        <v>-0.07555963581219867</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09728886041896326</v>
+      </c>
+      <c r="E75">
+        <v>0.1013610746801076</v>
+      </c>
+      <c r="F75">
+        <v>0.03099993379673679</v>
+      </c>
+      <c r="G75">
+        <v>0.003581554070362888</v>
+      </c>
+      <c r="H75">
+        <v>0.0939660537255651</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1368486104977708</v>
+        <v>-0.1234921268841016</v>
       </c>
       <c r="C76">
-        <v>0.09727243181694514</v>
+        <v>0.113906950564017</v>
       </c>
       <c r="D76">
-        <v>-0.005224751550787787</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.008185491236453268</v>
+      </c>
+      <c r="E76">
+        <v>0.1000908834648782</v>
+      </c>
+      <c r="F76">
+        <v>0.0486213589666273</v>
+      </c>
+      <c r="G76">
+        <v>-0.02470379239967582</v>
+      </c>
+      <c r="H76">
+        <v>-0.0003845617761313747</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04957364200970966</v>
+        <v>-0.05628205457477123</v>
       </c>
       <c r="C77">
-        <v>0.06526226388525923</v>
+        <v>0.07516772486370429</v>
       </c>
       <c r="D77">
-        <v>0.0367297398204563</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1294702776444078</v>
+      </c>
+      <c r="E77">
+        <v>0.3643676012011405</v>
+      </c>
+      <c r="F77">
+        <v>-0.2871265961243688</v>
+      </c>
+      <c r="G77">
+        <v>0.5340493150696163</v>
+      </c>
+      <c r="H77">
+        <v>0.5749022860074616</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04045915584438208</v>
+        <v>-0.04345445595864835</v>
       </c>
       <c r="C78">
-        <v>0.06185965914480593</v>
+        <v>0.06868765006904268</v>
       </c>
       <c r="D78">
-        <v>0.1291885105426318</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1356013523347217</v>
+      </c>
+      <c r="E78">
+        <v>0.01545251490466132</v>
+      </c>
+      <c r="F78">
+        <v>0.03471175270303711</v>
+      </c>
+      <c r="G78">
+        <v>0.005897992233222726</v>
+      </c>
+      <c r="H78">
+        <v>-0.009070112273842475</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.04140620579993865</v>
+        <v>-0.04863347400763713</v>
       </c>
       <c r="C79">
-        <v>0.08209756648069014</v>
+        <v>0.09849535483404247</v>
       </c>
       <c r="D79">
-        <v>-0.08894477895822896</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02571191299782188</v>
+      </c>
+      <c r="E79">
+        <v>0.2131063375970116</v>
+      </c>
+      <c r="F79">
+        <v>0.3436134666918036</v>
+      </c>
+      <c r="G79">
+        <v>-0.6272999495373199</v>
+      </c>
+      <c r="H79">
+        <v>0.4386847077532831</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02591069317749911</v>
+        <v>-0.02477430208656624</v>
       </c>
       <c r="C80">
-        <v>0.04459093527959272</v>
+        <v>0.04606325198060732</v>
       </c>
       <c r="D80">
-        <v>0.01724924415874247</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01831225595553622</v>
+      </c>
+      <c r="E80">
+        <v>0.017216020859784</v>
+      </c>
+      <c r="F80">
+        <v>0.007774242441519015</v>
+      </c>
+      <c r="G80">
+        <v>-0.008172342727566957</v>
+      </c>
+      <c r="H80">
+        <v>-0.06717862763889874</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1371059712737151</v>
+        <v>-0.1198959219453256</v>
       </c>
       <c r="C81">
-        <v>0.1024036721205043</v>
+        <v>0.1224536011414953</v>
       </c>
       <c r="D81">
-        <v>-0.07308051158725204</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07609409031576829</v>
+      </c>
+      <c r="E81">
+        <v>0.09780568613797104</v>
+      </c>
+      <c r="F81">
+        <v>0.06779669064213859</v>
+      </c>
+      <c r="G81">
+        <v>-0.002764044148550848</v>
+      </c>
+      <c r="H81">
+        <v>0.02450157847715251</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3115117514213446</v>
+        <v>-0.2601278769629911</v>
       </c>
       <c r="C82">
-        <v>0.267802841321346</v>
+        <v>0.2717688862811279</v>
       </c>
       <c r="D82">
-        <v>-0.2414991542192759</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2392979532870218</v>
+      </c>
+      <c r="E82">
+        <v>-0.01915359398023129</v>
+      </c>
+      <c r="F82">
+        <v>0.01606711195515356</v>
+      </c>
+      <c r="G82">
+        <v>0.1791558968993382</v>
+      </c>
+      <c r="H82">
+        <v>-0.02594643505603341</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02707814022621998</v>
+        <v>-0.02046034407722865</v>
       </c>
       <c r="C83">
-        <v>0.05520840325479434</v>
+        <v>0.05077290270617419</v>
       </c>
       <c r="D83">
-        <v>0.04994244278839148</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05119295056611758</v>
+      </c>
+      <c r="E83">
+        <v>0.033150943533894</v>
+      </c>
+      <c r="F83">
+        <v>-0.0586646646336104</v>
+      </c>
+      <c r="G83">
+        <v>0.06430285417143172</v>
+      </c>
+      <c r="H83">
+        <v>0.04815669517687864</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0009614653087939938</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004893338271636542</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01867265920414435</v>
+      </c>
+      <c r="E84">
+        <v>0.01700655853849883</v>
+      </c>
+      <c r="F84">
+        <v>0.01628559442718113</v>
+      </c>
+      <c r="G84">
+        <v>-0.001740596241689392</v>
+      </c>
+      <c r="H84">
+        <v>-0.02258374196413612</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1719688013028782</v>
+        <v>-0.1534312178533547</v>
       </c>
       <c r="C85">
-        <v>0.1119501040343181</v>
+        <v>0.1388499931252786</v>
       </c>
       <c r="D85">
-        <v>-0.03503760081022858</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.05981805179673862</v>
+      </c>
+      <c r="E85">
+        <v>0.03297012573146579</v>
+      </c>
+      <c r="F85">
+        <v>0.06090688044402878</v>
+      </c>
+      <c r="G85">
+        <v>-0.08782851545290499</v>
+      </c>
+      <c r="H85">
+        <v>0.03683119746672751</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01646425494263725</v>
+        <v>-0.01730115356093351</v>
       </c>
       <c r="C86">
-        <v>0.03625865949280594</v>
+        <v>0.03494975954929525</v>
       </c>
       <c r="D86">
-        <v>0.1161130943392096</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1166757820552843</v>
+      </c>
+      <c r="E86">
+        <v>0.03106806155857114</v>
+      </c>
+      <c r="F86">
+        <v>-0.004614053314634685</v>
+      </c>
+      <c r="G86">
+        <v>0.07650256412221668</v>
+      </c>
+      <c r="H86">
+        <v>0.007775842798805134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02073655349103821</v>
+        <v>-0.03165812227937683</v>
       </c>
       <c r="C87">
-        <v>0.01858546223929194</v>
+        <v>0.02580374849445825</v>
       </c>
       <c r="D87">
-        <v>0.09940333018489785</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1308710985817822</v>
+      </c>
+      <c r="E87">
+        <v>0.05678032127047685</v>
+      </c>
+      <c r="F87">
+        <v>0.01742286978611717</v>
+      </c>
+      <c r="G87">
+        <v>0.002190939370478818</v>
+      </c>
+      <c r="H87">
+        <v>-0.06077539370707893</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07461209461564602</v>
+        <v>-0.06609821229421352</v>
       </c>
       <c r="C88">
-        <v>0.04100651553498341</v>
+        <v>0.05396017860375824</v>
       </c>
       <c r="D88">
-        <v>0.04832065245825094</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02406469172480016</v>
+      </c>
+      <c r="E88">
+        <v>-0.003698999376587819</v>
+      </c>
+      <c r="F88">
+        <v>0.02979619251141277</v>
+      </c>
+      <c r="G88">
+        <v>-0.009060938899558092</v>
+      </c>
+      <c r="H88">
+        <v>-0.02458909365594431</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2396870343304669</v>
+        <v>-0.2862128310707779</v>
       </c>
       <c r="C89">
-        <v>-0.3928927537828125</v>
+        <v>-0.3449043839247747</v>
       </c>
       <c r="D89">
-        <v>-0.01158557715011735</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.003397548272150279</v>
+      </c>
+      <c r="E89">
+        <v>0.06127629986857729</v>
+      </c>
+      <c r="F89">
+        <v>-0.0006369091911776668</v>
+      </c>
+      <c r="G89">
+        <v>-0.04955666379925174</v>
+      </c>
+      <c r="H89">
+        <v>-0.0819988499151984</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2110577050180823</v>
+        <v>-0.2444260115051958</v>
       </c>
       <c r="C90">
-        <v>-0.2944307563476814</v>
+        <v>-0.2471329367077763</v>
       </c>
       <c r="D90">
-        <v>0.0007413935020319118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02217594639398773</v>
+      </c>
+      <c r="E90">
+        <v>0.04621771749895181</v>
+      </c>
+      <c r="F90">
+        <v>-0.0006069212816426836</v>
+      </c>
+      <c r="G90">
+        <v>0.04278455564743924</v>
+      </c>
+      <c r="H90">
+        <v>-0.04655100822221109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1751420205611618</v>
+        <v>-0.1526038588403994</v>
       </c>
       <c r="C91">
-        <v>0.1455462485287623</v>
+        <v>0.1579139828276895</v>
       </c>
       <c r="D91">
-        <v>-0.08491911888188505</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.0853436657491623</v>
+      </c>
+      <c r="E91">
+        <v>0.1025406122133672</v>
+      </c>
+      <c r="F91">
+        <v>0.0712765170016721</v>
+      </c>
+      <c r="G91">
+        <v>-0.04211917500307379</v>
+      </c>
+      <c r="H91">
+        <v>0.09225103223617859</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1851820180587806</v>
+        <v>-0.2297907491105546</v>
       </c>
       <c r="C92">
-        <v>-0.2761813095439631</v>
+        <v>-0.2673866458957007</v>
       </c>
       <c r="D92">
-        <v>0.02199043611423284</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03255706769753168</v>
+      </c>
+      <c r="E92">
+        <v>0.08160263548393315</v>
+      </c>
+      <c r="F92">
+        <v>0.009274807941915948</v>
+      </c>
+      <c r="G92">
+        <v>0.02842607862197715</v>
+      </c>
+      <c r="H92">
+        <v>-0.01374699077903595</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2360740735432757</v>
+        <v>-0.2637520211981582</v>
       </c>
       <c r="C93">
-        <v>-0.3007541314840451</v>
+        <v>-0.2551210331011208</v>
       </c>
       <c r="D93">
-        <v>0.01136929675205135</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.004284110801185539</v>
+      </c>
+      <c r="E93">
+        <v>-0.01645811888070097</v>
+      </c>
+      <c r="F93">
+        <v>0.02384999427884387</v>
+      </c>
+      <c r="G93">
+        <v>-0.009788757946929528</v>
+      </c>
+      <c r="H93">
+        <v>-0.003081595632259698</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3748027391789496</v>
+        <v>-0.3311196165441123</v>
       </c>
       <c r="C94">
-        <v>0.2158056071877098</v>
+        <v>0.2637456336416851</v>
       </c>
       <c r="D94">
-        <v>-0.4430105056083053</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4424372386531467</v>
+      </c>
+      <c r="E94">
+        <v>0.04300023518623546</v>
+      </c>
+      <c r="F94">
+        <v>-0.04685086496945272</v>
+      </c>
+      <c r="G94">
+        <v>0.1040219887475126</v>
+      </c>
+      <c r="H94">
+        <v>-0.3650958414481159</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06796377002081784</v>
+        <v>-0.06619169107507886</v>
       </c>
       <c r="C95">
-        <v>0.05790137309045292</v>
+        <v>0.06300123067495388</v>
       </c>
       <c r="D95">
-        <v>0.06416736947031197</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.08232496701912531</v>
+      </c>
+      <c r="E95">
+        <v>0.2885426062594925</v>
+      </c>
+      <c r="F95">
+        <v>-0.7855132114126583</v>
+      </c>
+      <c r="G95">
+        <v>-0.4335232361649936</v>
+      </c>
+      <c r="H95">
+        <v>-0.1338722490365044</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1684365309269136</v>
+        <v>-0.1613314657871517</v>
       </c>
       <c r="C98">
-        <v>0.04117231052042281</v>
+        <v>0.07262704842310047</v>
       </c>
       <c r="D98">
-        <v>0.1688138494603176</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1260072144628426</v>
+      </c>
+      <c r="E98">
+        <v>-0.3026972863761903</v>
+      </c>
+      <c r="F98">
+        <v>-0.03917135578842353</v>
+      </c>
+      <c r="G98">
+        <v>-0.03382178383961929</v>
+      </c>
+      <c r="H98">
+        <v>0.0992963258547333</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-8.797528577363064e-05</v>
+        <v>-0.00410045693378734</v>
       </c>
       <c r="C101">
-        <v>0.0209453409541126</v>
+        <v>0.02067480346391227</v>
       </c>
       <c r="D101">
-        <v>0.07883097541881796</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.09153644864637284</v>
+      </c>
+      <c r="E101">
+        <v>0.02372516420935706</v>
+      </c>
+      <c r="F101">
+        <v>0.03518065461782882</v>
+      </c>
+      <c r="G101">
+        <v>-0.01240989671826061</v>
+      </c>
+      <c r="H101">
+        <v>-0.09532971943321815</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1222589172325933</v>
+        <v>-0.1023753277977573</v>
       </c>
       <c r="C102">
-        <v>0.1171865130674637</v>
+        <v>0.1202150791031991</v>
       </c>
       <c r="D102">
-        <v>-0.05390310596259947</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06427841617863699</v>
+      </c>
+      <c r="E102">
+        <v>0.03191982637154197</v>
+      </c>
+      <c r="F102">
+        <v>-0.004714532195384868</v>
+      </c>
+      <c r="G102">
+        <v>0.02012179357041801</v>
+      </c>
+      <c r="H102">
+        <v>0.02943290915513467</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
